--- a/XJEMS/WebRoot/model/roomModel.xlsx
+++ b/XJEMS/WebRoot/model/roomModel.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeppin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeppin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="12340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+  <si>
+    <t>地点       时间</t>
+  </si>
   <si>
     <t>考场号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考场地点</t>
+    <t>考试地点</t>
+  </si>
+  <si>
+    <t>考试科目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,9 +52,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>考试科目</t>
+    <t>XXX表</t>
+    <rPh sb="3" eb="4">
+      <t>baio</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考场分类</t>
+    <rPh sb="0" eb="1">
+      <t>kao'c</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ke'mu</t>
+      <t>fen'lei</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +89,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -91,15 +123,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalDown="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -402,32 +539,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" style="4" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
